--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3168.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3168.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.517534112528263</v>
+        <v>0.9975482225418091</v>
       </c>
       <c r="B1">
-        <v>1.633903157238183</v>
+        <v>2.239984273910522</v>
       </c>
       <c r="C1">
-        <v>1.885969076351037</v>
+        <v>4.935811519622803</v>
       </c>
       <c r="D1">
-        <v>3.057916717301179</v>
+        <v>1.695178866386414</v>
       </c>
       <c r="E1">
-        <v>7.796827494182776</v>
+        <v>1.289914608001709</v>
       </c>
     </row>
   </sheetData>
